--- a/Sep19/pos_prof/Tables/regions-M_%pop.xlsx
+++ b/Sep19/pos_prof/Tables/regions-M_%pop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -431,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -477,10 +483,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.20743390879697</v>
@@ -495,33 +507,39 @@
         <v>2228507768.5</v>
       </c>
       <c r="F2">
+        <v>5453258922371.839</v>
+      </c>
+      <c r="G2">
+        <v>901477052802.8717</v>
+      </c>
+      <c r="H2">
         <v>-0.1037692975004065</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>2.046404070274973</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-0.7405881670462263</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.7039155152129787</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-0.01394260896272459</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.274958127489116</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-0.06971304481362507</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1.374790637445579</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.2130948962122795</v>
@@ -536,33 +554,39 @@
         <v>832566422</v>
       </c>
       <c r="F3">
+        <v>7186470855993.515</v>
+      </c>
+      <c r="G3">
+        <v>480200693963.0637</v>
+      </c>
+      <c r="H3">
         <v>14.56347087765464</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>13.09732554733245</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>9.962475203270865</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>8.977507032742029</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1.956771265473556</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>1.759777631367789</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>9.783856327367763</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>8.798888156838924</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.2374553544560417</v>
@@ -577,33 +601,39 @@
         <v>573353725</v>
       </c>
       <c r="F4">
+        <v>1002696890625.219</v>
+      </c>
+      <c r="G4">
+        <v>134030001792.1409</v>
+      </c>
+      <c r="H4">
         <v>9.549726947218232</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>27.72276729579457</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>9.583051053251541</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>21.79184504855785</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1.283116603206646</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3.724875402267907</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>6.415583016033226</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>18.62437701133953</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.4293297816364376</v>
@@ -618,33 +648,39 @@
         <v>253949523.25</v>
       </c>
       <c r="F5">
+        <v>241723618867.4443</v>
+      </c>
+      <c r="G5">
+        <v>38152875196.83905</v>
+      </c>
+      <c r="H5">
         <v>-3.611752107699634</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-2.267493785537157</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-3.169628458859604</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>-2.266544956211491</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-0.4852807961599289</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-0.3046640956303063</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>-2.426403980799647</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>-1.523320478151534</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.2048529706690015</v>
@@ -659,33 +695,39 @@
         <v>358282006.25</v>
       </c>
       <c r="F6">
+        <v>5526698445364.336</v>
+      </c>
+      <c r="G6">
+        <v>408160442622.5067</v>
+      </c>
+      <c r="H6">
         <v>66.95663804878062</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>28.3244854637098</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>85.92230500200819</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>59.9689156153326</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>8.996401096087338</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>3.805723218752173</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>44.98200548043629</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>19.02861609376071</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.3411401792246058</v>
@@ -700,33 +742,39 @@
         <v>1691005608</v>
       </c>
       <c r="F7">
+        <v>457036063703.7742</v>
+      </c>
+      <c r="G7">
+        <v>4932505470.985653</v>
+      </c>
+      <c r="H7">
         <v>-1.067951131308326</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>4.135928584326239</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-1.18254219289422</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>2.313465861119302</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>-0.1434916239562424</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.5557099868464619</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>-0.7174581197812117</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>2.778549934232311</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.4546822824075114</v>
@@ -738,31 +786,37 @@
         <v>876719000000</v>
       </c>
       <c r="E8">
-        <v>363813169.25</v>
+        <v>366265684.25</v>
       </c>
       <c r="F8">
-        <v>0.08149709472464613</v>
+        <v>114563677189.0651</v>
       </c>
       <c r="G8">
-        <v>0.9838364087714302</v>
+        <v>24178295225.23782</v>
       </c>
       <c r="H8">
-        <v>1.677017533237539</v>
+        <v>0.08095139018320678</v>
       </c>
       <c r="I8">
-        <v>2.283216308332771</v>
+        <v>0.9772486402366878</v>
       </c>
       <c r="J8">
-        <v>0.0109500801365593</v>
+        <v>1.665788223934512</v>
       </c>
       <c r="K8">
-        <v>0.1321898351556058</v>
+        <v>2.267927892067684</v>
       </c>
       <c r="L8">
-        <v>0.05475040068279572</v>
+        <v>0.01087675840061479</v>
       </c>
       <c r="M8">
-        <v>0.6609491757780278</v>
+        <v>0.1313046920272494</v>
+      </c>
+      <c r="N8">
+        <v>0.05438379200307317</v>
+      </c>
+      <c r="O8">
+        <v>0.6565234601362457</v>
       </c>
     </row>
   </sheetData>
